--- a/data/【測試結果】_60題.xlsx
+++ b/data/【測試結果】_60題.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crazy\Downloads\AUTOGEN_TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian.Lee\Desktop\RAG_Search_Weights\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55515387-F3A6-436C-B836-34B7B9FD3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ECC576-57D3-4390-B65B-A0E383DCF797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha 1.0" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="882">
   <si>
     <t>問題</t>
   </si>
@@ -7116,6 +7116,14 @@
 藥物對日常生活中的影響可說無所不在，像是遇到疾病、疼痛等情形可能會自行購置藥物，或是就醫時會由醫院、診所開立藥物，都與健康的維持息息相關。另一方面，藥物濫用問題從青少年時期就從校園出現，更是持續地影響整個國家社會，是亟需關住的社會問題。增進對於治療性藥物與非法、成癮藥物的整體認識，除了有利促進自身的健康品質，了解社會與藥物的複雜關係也有助於解決藥物濫用問題。
 **課程介紹：**
 藥物與生活, 生活常識, 上課輕鬆</t>
+  </si>
+  <si>
+    <t>檢索準確率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案準確率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7487,15 +7495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7514,8 +7522,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7535,7 +7549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -7555,7 +7569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7575,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7595,7 +7609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -7615,7 +7629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -7635,7 +7649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -7655,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -7675,7 +7689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -7695,7 +7709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -7715,7 +7729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -7735,7 +7749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -7755,7 +7769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -7795,7 +7809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -7815,7 +7829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -7835,7 +7849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -7855,7 +7869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -7875,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -7895,7 +7909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -7915,7 +7929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -7935,7 +7949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -7955,7 +7969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -7975,7 +7989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -7995,7 +8009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -8015,7 +8029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -8035,7 +8049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -8055,7 +8069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -8075,7 +8089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -8095,7 +8109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -8115,7 +8129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -8135,7 +8149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -8155,7 +8169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -8175,7 +8189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -8195,7 +8209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -8215,7 +8229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -8235,7 +8249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -8255,7 +8269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -8275,7 +8289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -8295,7 +8309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -8315,7 +8329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -8335,7 +8349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -8355,7 +8369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -8375,7 +8389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -8395,7 +8409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -8415,7 +8429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -8435,7 +8449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -8455,7 +8469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -8475,7 +8489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -8495,7 +8509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -8515,7 +8529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -8535,7 +8549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -8555,7 +8569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -8575,7 +8589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -8595,7 +8609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -8615,7 +8629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -8635,7 +8649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -8655,7 +8669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -8675,7 +8689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -8695,7 +8709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -8723,15 +8737,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="11.3984375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8750,8 +8768,14 @@
       <c r="F1" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8771,7 +8795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8791,7 +8815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8811,7 +8835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -8831,7 +8855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8851,7 +8875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8871,7 +8895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -8891,7 +8915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -8911,7 +8935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -8931,7 +8955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -8951,7 +8975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -8971,7 +8995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -8991,7 +9015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -9011,7 +9035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -9031,7 +9055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -9051,7 +9075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -9071,7 +9095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -9091,7 +9115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -9111,7 +9135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -9131,7 +9155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -9151,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -9171,7 +9195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -9191,7 +9215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -9211,7 +9235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -9231,7 +9255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -9251,7 +9275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -9271,7 +9295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -9291,7 +9315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -9311,7 +9335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -9331,7 +9355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -9351,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -9371,7 +9395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -9391,7 +9415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -9411,7 +9435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -9431,7 +9455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -9451,7 +9475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -9471,7 +9495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -9491,7 +9515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -9511,7 +9535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -9531,7 +9555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -9551,7 +9575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -9571,7 +9595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -9591,7 +9615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -9611,7 +9635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -9631,7 +9655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -9651,7 +9675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -9671,7 +9695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -9691,7 +9715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -9711,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -9731,7 +9755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -9751,7 +9775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -9771,7 +9795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -9791,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -9811,7 +9835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -9831,7 +9855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -9851,7 +9875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -9871,7 +9895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -9891,7 +9915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -9911,7 +9935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -9931,7 +9955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -9959,13 +9983,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9984,8 +10010,14 @@
       <c r="F1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -10025,7 +10057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -10045,7 +10077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10065,7 +10097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -10085,7 +10117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10105,7 +10137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -10125,7 +10157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -10145,7 +10177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -10165,7 +10197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -10185,7 +10217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10205,7 +10237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -10225,7 +10257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -10245,7 +10277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -10265,7 +10297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -10285,7 +10317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10305,7 +10337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -10325,7 +10357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -10345,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -10365,7 +10397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -10385,7 +10417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10405,7 +10437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -10425,7 +10457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -10445,7 +10477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -10465,7 +10497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -10485,7 +10517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -10505,7 +10537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -10525,7 +10557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -10545,7 +10577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -10565,7 +10597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -10585,7 +10617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -10605,7 +10637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -10625,7 +10657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -10645,7 +10677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -10665,7 +10697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -10685,7 +10717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -10705,7 +10737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -10725,7 +10757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -10745,7 +10777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -10765,7 +10797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -10785,7 +10817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -10805,7 +10837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -10825,7 +10857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -10845,7 +10877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -10865,7 +10897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -10885,7 +10917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -10905,7 +10937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -10925,7 +10957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -10945,7 +10977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -10965,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -10985,7 +11017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -11005,7 +11037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -11025,7 +11057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -11045,7 +11077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -11065,7 +11097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -11085,7 +11117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -11105,7 +11137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -11125,7 +11157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -11145,7 +11177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -11165,7 +11197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -11193,13 +11225,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11218,8 +11252,14 @@
       <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -11239,7 +11279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -11259,7 +11299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11279,7 +11319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -11299,7 +11339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -11319,7 +11359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -11339,7 +11379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -11359,7 +11399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -11379,7 +11419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -11399,7 +11439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -11419,7 +11459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -11439,7 +11479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -11459,7 +11499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -11479,7 +11519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -11499,7 +11539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -11519,7 +11559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -11539,7 +11579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -11559,7 +11599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -11579,7 +11619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -11599,7 +11639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -11619,7 +11659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -11639,7 +11679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -11659,7 +11699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -11679,7 +11719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -11699,7 +11739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -11719,7 +11759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -11739,7 +11779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -11759,7 +11799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -11779,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -11799,7 +11839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -11819,7 +11859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -11839,7 +11879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -11859,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -11879,7 +11919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -11899,7 +11939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -11919,7 +11959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -11939,7 +11979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -11959,7 +11999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -11979,7 +12019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -11999,7 +12039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -12019,7 +12059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -12039,7 +12079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -12059,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -12079,7 +12119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -12099,7 +12139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -12119,7 +12159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -12139,7 +12179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -12159,7 +12199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -12179,7 +12219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -12199,7 +12239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -12219,7 +12259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -12239,7 +12279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -12259,7 +12299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -12279,7 +12319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -12299,7 +12339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -12319,7 +12359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -12339,7 +12379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -12359,7 +12399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -12379,7 +12419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -12399,7 +12439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -12427,13 +12467,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12452,8 +12494,14 @@
       <c r="F1" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -12473,7 +12521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -12493,7 +12541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -12513,7 +12561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -12533,7 +12581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -12553,7 +12601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12573,7 +12621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -12593,7 +12641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -12613,7 +12661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -12633,7 +12681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -12653,7 +12701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -12673,7 +12721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -12693,7 +12741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -12713,7 +12761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -12733,7 +12781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -12753,7 +12801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -12773,7 +12821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -12793,7 +12841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -12813,7 +12861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -12833,7 +12881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -12853,7 +12901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -12873,7 +12921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -12893,7 +12941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -12913,7 +12961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -12933,7 +12981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -12953,7 +13001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -12973,7 +13021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -12993,7 +13041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -13013,7 +13061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -13033,7 +13081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -13053,7 +13101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -13073,7 +13121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -13093,7 +13141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -13113,7 +13161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -13133,7 +13181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -13153,7 +13201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -13173,7 +13221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -13193,7 +13241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -13213,7 +13261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -13233,7 +13281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -13253,7 +13301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -13273,7 +13321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -13293,7 +13341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -13313,7 +13361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -13333,7 +13381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -13353,7 +13401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -13373,7 +13421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -13393,7 +13441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -13413,7 +13461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -13433,7 +13481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -13453,7 +13501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -13473,7 +13521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -13493,7 +13541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -13513,7 +13561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -13533,7 +13581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -13553,7 +13601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -13573,7 +13621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -13593,7 +13641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -13613,7 +13661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -13633,7 +13681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -13661,13 +13709,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13686,8 +13736,14 @@
       <c r="F1" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -13707,7 +13763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -13727,7 +13783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -13747,7 +13803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -13767,7 +13823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -13787,7 +13843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -13807,7 +13863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -13827,7 +13883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -13847,7 +13903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -13867,7 +13923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -13887,7 +13943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -13907,7 +13963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -13927,7 +13983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -13947,7 +14003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -13967,7 +14023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -13987,7 +14043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14007,7 +14063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -14027,7 +14083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -14047,7 +14103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -14067,7 +14123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -14087,7 +14143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -14107,7 +14163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -14127,7 +14183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -14147,7 +14203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -14167,7 +14223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -14187,7 +14243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -14207,7 +14263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -14227,7 +14283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -14247,7 +14303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -14267,7 +14323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -14287,7 +14343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -14307,7 +14363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -14327,7 +14383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -14347,7 +14403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -14367,7 +14423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -14387,7 +14443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -14407,7 +14463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -14427,7 +14483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -14447,7 +14503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -14467,7 +14523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -14487,7 +14543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -14507,7 +14563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -14527,7 +14583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -14547,7 +14603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -14567,7 +14623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -14587,7 +14643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -14607,7 +14663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -14627,7 +14683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -14647,7 +14703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -14667,7 +14723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -14687,7 +14743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -14707,7 +14763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -14727,7 +14783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -14747,7 +14803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -14767,7 +14823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -14787,7 +14843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -14807,7 +14863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -14827,7 +14883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -14847,7 +14903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -14867,7 +14923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -14895,13 +14951,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14920,8 +14978,14 @@
       <c r="F1" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -14941,7 +15005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -14961,7 +15025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -14981,7 +15045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -15001,7 +15065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -15021,7 +15085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -15041,7 +15105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -15061,7 +15125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -15081,7 +15145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -15101,7 +15165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -15121,7 +15185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -15141,7 +15205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -15161,7 +15225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -15181,7 +15245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -15201,7 +15265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -15221,7 +15285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -15241,7 +15305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -15261,7 +15325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -15281,7 +15345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -15301,7 +15365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -15321,7 +15385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -15341,7 +15405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -15361,7 +15425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -15381,7 +15445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -15401,7 +15465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -15421,7 +15485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -15441,7 +15505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -15461,7 +15525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -15481,7 +15545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -15501,7 +15565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -15521,7 +15585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -15541,7 +15605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -15561,7 +15625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -15581,7 +15645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -15601,7 +15665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -15621,7 +15685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -15641,7 +15705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -15661,7 +15725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -15681,7 +15745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -15701,7 +15765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -15721,7 +15785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -15741,7 +15805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -15761,7 +15825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -15781,7 +15845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -15801,7 +15865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -15821,7 +15885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -15841,7 +15905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -15861,7 +15925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -15881,7 +15945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -15901,7 +15965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -15921,7 +15985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -15941,7 +16005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -15961,7 +16025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -15981,7 +16045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -16001,7 +16065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -16021,7 +16085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -16041,7 +16105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -16061,7 +16125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -16081,7 +16145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -16101,7 +16165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -16129,13 +16193,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16154,8 +16220,14 @@
       <c r="F1" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -16175,7 +16247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -16195,7 +16267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -16215,7 +16287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -16235,7 +16307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -16255,7 +16327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -16275,7 +16347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -16295,7 +16367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -16315,7 +16387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -16335,7 +16407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -16355,7 +16427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -16375,7 +16447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -16395,7 +16467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -16415,7 +16487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -16435,7 +16507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -16455,7 +16527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -16475,7 +16547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -16495,7 +16567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -16515,7 +16587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -16535,7 +16607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -16555,7 +16627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -16575,7 +16647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -16595,7 +16667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -16615,7 +16687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -16635,7 +16707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -16655,7 +16727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -16675,7 +16747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -16695,7 +16767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -16715,7 +16787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -16735,7 +16807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -16755,7 +16827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -16775,7 +16847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -16795,7 +16867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -16815,7 +16887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -16835,7 +16907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -16855,7 +16927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -16875,7 +16947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -16895,7 +16967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -16915,7 +16987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -16935,7 +17007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -16955,7 +17027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -16975,7 +17047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -16995,7 +17067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -17015,7 +17087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -17035,7 +17107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -17055,7 +17127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -17075,7 +17147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -17095,7 +17167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -17115,7 +17187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -17135,7 +17207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -17155,7 +17227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -17175,7 +17247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -17195,7 +17267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -17215,7 +17287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -17235,7 +17307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -17255,7 +17327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -17275,7 +17347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -17295,7 +17367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -17315,7 +17387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -17335,7 +17407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -17363,13 +17435,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17388,8 +17462,14 @@
       <c r="F1" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17409,7 +17489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -17429,7 +17509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -17449,7 +17529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -17469,7 +17549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -17489,7 +17569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -17509,7 +17589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -17529,7 +17609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -17549,7 +17629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -17569,7 +17649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -17589,7 +17669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -17609,7 +17689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -17629,7 +17709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -17649,7 +17729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -17669,7 +17749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -17689,7 +17769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -17709,7 +17789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -17729,7 +17809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -17749,7 +17829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -17769,7 +17849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -17789,7 +17869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -17809,7 +17889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -17829,7 +17909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -17849,7 +17929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -17869,7 +17949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -17889,7 +17969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -17909,7 +17989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -17929,7 +18009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -17949,7 +18029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -17969,7 +18049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -17989,7 +18069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -18009,7 +18089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -18029,7 +18109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -18049,7 +18129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -18069,7 +18149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -18089,7 +18169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -18109,7 +18189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -18129,7 +18209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -18149,7 +18229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -18169,7 +18249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -18189,7 +18269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -18209,7 +18289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -18229,7 +18309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -18249,7 +18329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -18269,7 +18349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -18289,7 +18369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -18309,7 +18389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -18329,7 +18409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -18349,7 +18429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -18369,7 +18449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -18389,7 +18469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -18409,7 +18489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -18429,7 +18509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -18449,7 +18529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -18469,7 +18549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -18489,7 +18569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -18509,7 +18589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -18529,7 +18609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -18549,7 +18629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -18569,7 +18649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -18597,13 +18677,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18622,8 +18704,14 @@
       <c r="F1" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -18643,7 +18731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -18663,7 +18751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -18683,7 +18771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -18703,7 +18791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -18723,7 +18811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -18743,7 +18831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -18763,7 +18851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -18783,7 +18871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -18803,7 +18891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -18823,7 +18911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -18843,7 +18931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -18863,7 +18951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -18883,7 +18971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -18903,7 +18991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -18923,7 +19011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -18943,7 +19031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -18963,7 +19051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -18983,7 +19071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -19003,7 +19091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -19023,7 +19111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -19043,7 +19131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -19063,7 +19151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -19083,7 +19171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -19103,7 +19191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -19123,7 +19211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -19143,7 +19231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -19163,7 +19251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -19183,7 +19271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -19203,7 +19291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -19223,7 +19311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -19243,7 +19331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -19263,7 +19351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -19283,7 +19371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -19303,7 +19391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -19323,7 +19411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -19343,7 +19431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -19363,7 +19451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -19383,7 +19471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -19403,7 +19491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -19423,7 +19511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -19443,7 +19531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -19463,7 +19551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -19483,7 +19571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -19503,7 +19591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -19523,7 +19611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>188</v>
       </c>
@@ -19543,7 +19631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -19563,7 +19651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -19583,7 +19671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -19603,7 +19691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -19623,7 +19711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -19643,7 +19731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -19663,7 +19751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -19683,7 +19771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -19703,7 +19791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -19723,7 +19811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -19743,7 +19831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>232</v>
       </c>
@@ -19763,7 +19851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -19783,7 +19871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>240</v>
       </c>
@@ -19803,7 +19891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
